--- a/Feleves_utemterv.xlsx
+++ b/Feleves_utemterv.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">javítani a programot, átírni már 6 dobra,kapcsolási rajz</t>
   </si>
   <si>
-    <t xml:space="preserve">Közel kész</t>
+    <t xml:space="preserve">KÉSZ</t>
   </si>
   <si>
     <t xml:space="preserve">A programban rossz helyen növeltem a hit_counter változót, ami a leütéstől számított időért felelt.</t>
@@ -90,10 +90,10 @@
     <t xml:space="preserve">Elkezdve</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanulok nyákot tervezni. Még ilyennel nem volt dolgom. Jövőhétre kész lesz talán.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meg kell tanulni. Illetve rossz az arduino lábkiosztása</t>
+    <t xml:space="preserve">Nyák terv kész. Alkatrészek beforrasztva, de nincs kábelezve, mert nem tudtam jó kábelt venni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A HASTORE nem szállítja le a rendelést.</t>
   </si>
   <si>
     <t xml:space="preserve">8.hét</t>
@@ -253,10 +253,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.65"/>

--- a/Feleves_utemterv.xlsx
+++ b/Feleves_utemterv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Hét</t>
   </si>
@@ -87,7 +87,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Elkezdve</t>
+    <t xml:space="preserve">Kész</t>
   </si>
   <si>
     <t xml:space="preserve">Nyák terv kész. Alkatrészek beforrasztva, de nincs kábelezve, mert nem tudtam jó kábelt venni.</t>
@@ -102,16 +102,31 @@
     <t xml:space="preserve">Menü rendszer elkészítése, próbanyák beszerelése</t>
   </si>
   <si>
+    <t xml:space="preserve">Próbanyák beszerelve. Menürendszer nincs elkezdve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kábelezéssel és a doboz kialakításával voltak nehézségek, de egy hét csúszással és pár trükkös megoldással sikerült orvosolni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem fért el semmi és helyet kellett neki csinálnom.</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.hét</t>
   </si>
   <si>
     <t xml:space="preserve">Hibák javítása</t>
   </si>
   <si>
+    <t xml:space="preserve">Dolgozom rajta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A csütörtöki nap folyamán sikerült haladnom a hibák javításával. A kód úgy tűnik most már jól működik. A két cintányérral van gond, lehet a jack csatlakozó lett rajta megsérülve.</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.hét</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumentáció</t>
+    <t xml:space="preserve">(Menürendszer) + Dokumentáció</t>
   </si>
   <si>
     <t xml:space="preserve">14.hét</t>
@@ -216,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,8 +240,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -253,100 +276,115 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="83.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="147.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="47.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
+      <c r="A5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
+      <c r="A6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
+      <c r="A7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Feleves_utemterv.xlsx
+++ b/Feleves_utemterv.xlsx
@@ -268,6 +268,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2035080</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611280" y="1701000"/>
+          <a:ext cx="9432360" cy="7009920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -275,15 +317,15 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="147.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="47.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.67"/>
@@ -395,5 +437,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Feleves_utemterv.xlsx
+++ b/Feleves_utemterv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Hét</t>
   </si>
@@ -129,6 +129,9 @@
     <t xml:space="preserve">(Menürendszer) + Dokumentáció</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomb működik. Menürendszert kell mögé rakni.</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.hét</t>
   </si>
   <si>
@@ -279,9 +282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2035080</xdr:colOff>
+      <xdr:colOff>2034720</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,7 +298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="611280" y="1701000"/>
-          <a:ext cx="9432360" cy="7009920"/>
+          <a:ext cx="9431280" cy="7009560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -318,7 +321,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,13 +423,16 @@
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
